--- a/Tesis/Imagenes/Fuentes/04/XeYPoblacional.xlsx
+++ b/Tesis/Imagenes/Fuentes/04/XeYPoblacional.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Zero\UBA\Dropbox\Tesis\Actual\Documento\Tesis\Imagenes\Fuentes\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Tesis\ActualGit\Tesis\Imagenes\Fuentes\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="Grafico" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Trials\Features</t>
   </si>
@@ -56,13 +56,7 @@
     <t>Trial 46</t>
   </si>
   <si>
-    <t>GO</t>
-  </si>
-  <si>
     <t>Trial 24</t>
-  </si>
-  <si>
-    <t>NOGO</t>
   </si>
   <si>
     <t>Trial 23</t>
@@ -247,6 +241,15 @@
       </rPr>
       <t>46,153</t>
     </r>
+  </si>
+  <si>
+    <t>Goc</t>
+  </si>
+  <si>
+    <t>GOc</t>
+  </si>
+  <si>
+    <t>NOGOc</t>
   </si>
 </sst>
 </file>
@@ -561,6 +564,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,9 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,7 +869,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1131,33 +1134,33 @@
   <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="B12:D12"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="10"/>
       <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1166,7 +1169,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1187,28 +1190,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1226,52 +1229,52 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1289,56 +1292,56 @@
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1348,7 +1351,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1358,7 +1361,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
